--- a/xlsx/MySpace_intext.xlsx
+++ b/xlsx/MySpace_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>社交網路服務</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_MySpace</t>
+    <t>社交网路服务</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_MySpace</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8E%AB%E5%B0%BC%E5%8D%A1</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BD%9B%E5%88%A9%E5%B1%B1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>比佛利山 (加利福尼亞州)</t>
+    <t>比佛利山 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%8F%90%E5%A7%86%E5%B8%83%E8%90%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>賈斯汀·提姆布萊克</t>
+    <t>贾斯汀·提姆布莱克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>電子郵件</t>
+    <t>电子邮件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E6%96%87%E5%8C%96</t>
@@ -137,31 +137,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>湯姆·安德森</t>
+    <t>汤姆·安德森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛杉磯加州大學</t>
+    <t>洛杉矶加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓大學</t>
+    <t>华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福克斯廣播公司</t>
+    <t>福克斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%B1%80%E5%B8%83%E8%90%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>賈斯汀·汀布萊克</t>
+    <t>贾斯汀·汀布莱克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%AE%A2</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>瀏覽器</t>
+    <t>浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E5%AF%AC</t>
   </si>
   <si>
-    <t>頻寬</t>
+    <t>频宽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PC_World</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E5%B3%B0%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>尖峰時間</t>
+    <t>尖峰时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BD%91%E7%BB%9C%E5%AE%A1%E6%9F%A5</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%BC%AA%E5%8A%9F</t>
   </si>
   <si>
-    <t>法輪功</t>
+    <t>法轮功</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%B3%B4%E5%96%87%E5%98%9B</t>
   </si>
   <si>
-    <t>達賴喇嘛</t>
+    <t>达赖喇嘛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deleting_Online_Predators_Act_of_2006</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>長島</t>
+    <t>长岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%8A%B1%E5%85%AC%E5%AD%90</t>
@@ -383,25 +383,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%C2%B7%E8%B3%93%E7%B5%B2</t>
   </si>
   <si>
-    <t>泰雅·賓絲</t>
+    <t>泰雅·宾丝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E6%BD%91%E7%8C%B4</t>
   </si>
   <si>
-    <t>北極潑猴</t>
+    <t>北极泼猴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>流行音樂</t>
+    <t>流行音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E8%8E%89%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>莉莉·艾倫</t>
+    <t>莉莉·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E7%87%9F%E9%81%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>首席營運長</t>
+    <t>首席营运长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Flickr</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9A%E8%81%B2%E5%B0%96%E7%AC%914</t>
   </si>
   <si>
-    <t>驚聲尖笑4</t>
+    <t>惊声尖笑4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E8%87%AA%E7%84%B6%E6%AA%94%E6%A1%88</t>
   </si>
   <si>
-    <t>超自然檔案</t>
+    <t>超自然档案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/LINE_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>LINE (應用程式)</t>
+    <t>LINE (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Netlog</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%B1%86%E7%B6%B2</t>
   </si>
   <si>
-    <t>土豆網</t>
+    <t>土豆网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93%E5%BE%AE%E5%8D%9A</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E9%A8%B0%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>恆騰網絡</t>
+    <t>恒腾网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QQ%E7%A9%BA%E9%97%B4</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plaxo</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>虛擬社區</t>
+    <t>虚拟社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E5%BA%A6%E5%88%86%E9%9A%94%E7%90%86%E8%AE%BA</t>
@@ -923,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%B8%96%E7%95%8C%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>小世界網路</t>
+    <t>小世界网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
